--- a/FAQ.xlsx
+++ b/FAQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4G模块" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Q：在移动的onenet平台上注册设备的时候，假设在Auth_Code一栏中如果填入了相应的数值，在NB设备注册的时候就会出现MIPEVENT:0,3这样的错误，这个是为什么？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,22 @@
 ⑤AT+URCCFG="urcport","uart1"(设置URC从串口上报，放在模块的初始化函数中）
 ⑥如果要使用APREADY功能（必须要有APREADY管脚接到MCU的GPIO输出脚上），试试模块在MCU准备好后，通过AT+QCFG="apready"的指令来进行配置。比如AT+QCFG="apready",1,0,200表示主机处在唤醒就绪状态，此时若模块有主动事件数据上报，模块将直接输出数据到主机端；而当AP_READY引脚为高电平时，表示主机处在未就绪状态，此时模块若有主动事件数据上报，模块端不会直接输出数据，而是以200ms为周期对AP_READY引脚进行循环检测，知道AP_READY引脚电平变低（主机端就绪）才输出主动事件数据到主机端
 ⑦其他功能，请参考附件中的EC20低功耗文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q:BC28的关键器件的清单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q:客户使用这个版本BC95B5HBR01A02W16，贴了1300片，有二十几注不上网，开机cfun=0，有时偶尔是1；升级到a06可以解决问题，这个是啥原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:之前老版本，对esim的兼容有问题。SP2版本，USIM卡兼容性不是很高。针对一些产商的USIM卡，需要升级到657SP3以上版本就可以了。主要修改：CLK周期提高、延迟握手协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:主板：MXN018（NUVOTON）-V01【随州波导电子有限公司】基带芯片：Hi2115【海思半导体有限公司】功率放大芯片：RF3628TR13【Qrovo】无线放大芯片：Hi2115【海思半导体有限公司】天线：N1-NB-V1.2【深圳市三好无线通信有限公司FPC规格的】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,13 +114,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -387,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -421,16 +438,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="255.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
